--- a/Model2.xlsx
+++ b/Model2.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3060" yWindow="1350" windowWidth="17850" windowHeight="14250" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2b" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,20 +11,25 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2a" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -39,12 +43,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -57,14 +76,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -902,7 +924,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1382,298 +1404,298 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>PECOTA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>FanGraphs</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>ZiPs</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Steamer</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.508</v>
+        <v>89.125</v>
       </c>
       <c r="C2" t="n">
-        <v>82.667</v>
+        <v>82.643</v>
       </c>
       <c r="D2" t="n">
-        <v>85.179</v>
+        <v>85.065</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.703</v>
+        <v>62.263</v>
       </c>
       <c r="C3" t="n">
-        <v>63.092</v>
+        <v>65.29600000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>65.813</v>
+        <v>68.324</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.319</v>
+        <v>118.285</v>
       </c>
       <c r="C4" t="n">
-        <v>97.086</v>
+        <v>97.515</v>
       </c>
       <c r="D4" t="n">
-        <v>93.346</v>
+        <v>95.379</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.783</v>
+        <v>100.666</v>
       </c>
       <c r="C5" t="n">
-        <v>170.682</v>
+        <v>151.024</v>
       </c>
       <c r="D5" t="n">
-        <v>90.81</v>
+        <v>91.919</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.19</v>
+        <v>63.216</v>
       </c>
       <c r="C6" t="n">
-        <v>69.691</v>
+        <v>69.143</v>
       </c>
       <c r="D6" t="n">
-        <v>56.581</v>
+        <v>56.629</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.759</v>
+        <v>63.529</v>
       </c>
       <c r="C7" t="n">
-        <v>81.977</v>
+        <v>82.166</v>
       </c>
       <c r="D7" t="n">
-        <v>72.114</v>
+        <v>73.873</v>
       </c>
       <c r="E7" t="n">
-        <v>77.86799999999999</v>
+        <v>78.63200000000001</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.558</v>
+        <v>55.334</v>
       </c>
       <c r="C8" t="n">
-        <v>61.572</v>
+        <v>61.199</v>
       </c>
       <c r="D8" t="n">
-        <v>60.407</v>
+        <v>60.472</v>
       </c>
       <c r="E8" t="n">
-        <v>58.106</v>
+        <v>58.249</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52.967</v>
+        <v>50.515</v>
       </c>
       <c r="C9" t="n">
-        <v>37.763</v>
+        <v>37.552</v>
       </c>
       <c r="D9" t="n">
-        <v>32.632</v>
+        <v>32.761</v>
       </c>
       <c r="E9" t="n">
-        <v>35.918</v>
+        <v>34.815</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.179</v>
+        <v>76.06699999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>58.537</v>
+        <v>61.854</v>
       </c>
       <c r="D10" t="n">
-        <v>59.798</v>
+        <v>59.876</v>
       </c>
       <c r="E10" t="n">
-        <v>58.971</v>
+        <v>60.558</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56.237</v>
+        <v>56.25</v>
       </c>
       <c r="C11" t="n">
-        <v>51.4</v>
+        <v>50.82</v>
       </c>
       <c r="D11" t="n">
-        <v>52.971</v>
+        <v>52.988</v>
       </c>
       <c r="E11" t="n">
-        <v>46.912</v>
+        <v>45.673</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58.273</v>
+        <v>57.867</v>
       </c>
       <c r="C12" t="n">
-        <v>34.792</v>
+        <v>34.837</v>
       </c>
       <c r="D12" t="n">
-        <v>58.867</v>
+        <v>59.146</v>
       </c>
       <c r="E12" t="n">
-        <v>50.345</v>
+        <v>51.081</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.557</v>
+        <v>79.09</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>90.538</v>
+        <v>90.69799999999999</v>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.773</v>
+        <v>55.474</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>54.703</v>
+        <v>54.737</v>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61.014</v>
+        <v>61.866</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>58.227</v>
+        <v>58.117</v>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.792</v>
+        <v>93.083</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>75.411</v>
+        <v>75.07599999999999</v>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62.976</v>
+        <v>69.46899999999999</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>72.80200000000001</v>
+        <v>79.08199999999999</v>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
